--- a/test/data/種別2/申込書-koizumi.xlsx
+++ b/test/data/種別2/申込書-koizumi.xlsx
@@ -36,7 +36,7 @@
     <t>メールアドレス</t>
   </si>
   <si>
-    <t>koizumi@procube.jp</t>
+    <t>koizumi＠procube.jp</t>
   </si>
   <si>
     <t>プラン</t>
@@ -143,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -159,6 +159,9 @@
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -385,10 +388,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.63"/>
     <col customWidth="1" min="2" max="2" width="6.13"/>
     <col customWidth="1" min="3" max="3" width="25.25"/>
-    <col customWidth="1" min="4" max="6" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
@@ -428,7 +429,7 @@
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="4"/>
@@ -447,14 +448,14 @@
       <c r="C10" s="4"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="7" t="b">
+      <c r="B12" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>9</v>
       </c>
     </row>
